--- a/Results_Collection/Cornet_rt pretrained results/RDM_Evaluation_Results/R2_squared_linear_regression/R² and noise ceilling results.xlsx
+++ b/Results_Collection/Cornet_rt pretrained results/RDM_Evaluation_Results/R2_squared_linear_regression/R² and noise ceilling results.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\PycharmProjects\untitled2\Numerosity-in-Neural-Networks\Results_Collection\Cornet_rt pretrained results\RDM_Evaluation_Results\R2_squared_linear_regression\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1FE8B3-B944-4D2E-B895-5162BB5E6323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="24">
   <si>
     <t>ROI</t>
   </si>
@@ -81,28 +97,35 @@
   </si>
   <si>
     <t>IPS15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG NC </t>
+  </si>
+  <si>
+    <t>AVG NC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,26 +140,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,20 +464,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,1157 +496,1178 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.191364251156858</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61.20697990875343</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.87525186541269e-06</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.3126510267981549</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="C2">
+        <v>0.19136425115685801</v>
+      </c>
+      <c r="D2">
+        <v>61.206979908753432</v>
+      </c>
+      <c r="E2">
+        <v>5.8752518654126902E-6</v>
+      </c>
+      <c r="F2">
+        <v>0.31265102679815487</v>
+      </c>
+      <c r="G2">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.179668574308001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>57.46617119667855</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.850286673647768e-06</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.3126510267981549</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="C3">
+        <v>0.17966857430800101</v>
+      </c>
+      <c r="D3">
+        <v>57.466171196678552</v>
+      </c>
+      <c r="E3">
+        <v>7.8502866736477679E-6</v>
+      </c>
+      <c r="F3">
+        <v>0.31265102679815487</v>
+      </c>
+      <c r="G3">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.1736341096585444</v>
-      </c>
-      <c r="D4" t="n">
-        <v>55.53607529670494</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.05387155241744e-05</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3126510267981549</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="C4">
+        <v>0.17363410965854439</v>
+      </c>
+      <c r="D4">
+        <v>55.536075296704936</v>
+      </c>
+      <c r="E4">
+        <v>1.05387155241744E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.31265102679815487</v>
+      </c>
+      <c r="G4">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.2062975648322367</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>0.20629756483223671</v>
+      </c>
+      <c r="D5">
         <v>65.98333194198041</v>
       </c>
-      <c r="E5" t="n">
-        <v>1.26874647147437e-05</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3126510267981549</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="E5">
+        <v>1.2687464714743701E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.31265102679815487</v>
+      </c>
+      <c r="G5">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.2484381867770732</v>
-      </c>
-      <c r="D6" t="n">
-        <v>79.46181700451056</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8.853881539636874e-06</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.3126510267981549</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="C6">
+        <v>0.24843818677707319</v>
+      </c>
+      <c r="D6">
+        <v>79.461817004510564</v>
+      </c>
+      <c r="E6">
+        <v>8.853881539636874E-6</v>
+      </c>
+      <c r="F6">
+        <v>0.31265102679815487</v>
+      </c>
+      <c r="G6">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.2128660822203881</v>
-      </c>
-      <c r="D7" t="n">
-        <v>56.59437656406433</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.685718282892668e-06</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.3761258540933402</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="C7">
+        <v>0.21286608222038811</v>
+      </c>
+      <c r="D7">
+        <v>56.594376564064333</v>
+      </c>
+      <c r="E7">
+        <v>1.685718282892668E-6</v>
+      </c>
+      <c r="F7">
+        <v>0.37612585409334021</v>
+      </c>
+      <c r="G7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.2102547629070439</v>
       </c>
-      <c r="D8" t="n">
-        <v>55.90010913072374</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9.37147803165858e-06</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.3761258540933402</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="D8">
+        <v>55.900109130723742</v>
+      </c>
+      <c r="E8">
+        <v>9.3714780316585796E-6</v>
+      </c>
+      <c r="F8">
+        <v>0.37612585409334021</v>
+      </c>
+      <c r="G8">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.2087701922796433</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>55.50540863054696</v>
       </c>
-      <c r="E9" t="n">
-        <v>1.503126186362028e-05</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.3761258540933402</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="E9">
+        <v>1.5031261863620279E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.37612585409334021</v>
+      </c>
+      <c r="G9">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.2445441113840258</v>
-      </c>
-      <c r="D10" t="n">
-        <v>65.01656525938768</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.017658878759217e-05</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.3761258540933402</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="C10">
+        <v>0.24454411138402579</v>
+      </c>
+      <c r="D10">
+        <v>65.016565259387676</v>
+      </c>
+      <c r="E10">
+        <v>2.0176588787592169E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.37612585409334021</v>
+      </c>
+      <c r="G10">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.3409774315170055</v>
-      </c>
-      <c r="D11" t="n">
-        <v>90.6551431671559</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.336631448394519e-06</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.3761258540933402</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="C11">
+        <v>0.34097743151700549</v>
+      </c>
+      <c r="D11">
+        <v>90.655143167155899</v>
+      </c>
+      <c r="E11">
+        <v>1.3366314483945189E-6</v>
+      </c>
+      <c r="F11">
+        <v>0.37612585409334021</v>
+      </c>
+      <c r="G11">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.1796176821461005</v>
-      </c>
-      <c r="D12" t="n">
-        <v>59.08245073951954</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.855030754983648e-06</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.3040119018386562</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="C12">
+        <v>0.17961768214610049</v>
+      </c>
+      <c r="D12">
+        <v>59.082450739519537</v>
+      </c>
+      <c r="E12">
+        <v>7.8550307549836481E-6</v>
+      </c>
+      <c r="F12">
+        <v>0.30401190183865617</v>
+      </c>
+      <c r="G12">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.1872564867249318</v>
-      </c>
-      <c r="D13" t="n">
-        <v>61.59511703075088</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.149079520227385e-05</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.3040119018386562</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="C13">
+        <v>0.18725648672493181</v>
+      </c>
+      <c r="D13">
+        <v>61.595117030750878</v>
+      </c>
+      <c r="E13">
+        <v>4.1490795202273852E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.30401190183865617</v>
+      </c>
+      <c r="G13">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.1899730392283752</v>
-      </c>
-      <c r="D14" t="n">
-        <v>62.48868484405484</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6.629248775618254e-05</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.3040119018386562</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="C14">
+        <v>0.18997303922837519</v>
+      </c>
+      <c r="D14">
+        <v>62.488684844054838</v>
+      </c>
+      <c r="E14">
+        <v>6.6292487756182538E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.30401190183865617</v>
+      </c>
+      <c r="G14">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.2202034454165178</v>
-      </c>
-      <c r="D15" t="n">
-        <v>72.43250809745705</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7.712224206915706e-05</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.3040119018386562</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="C15">
+        <v>0.22020344541651779</v>
+      </c>
+      <c r="D15">
+        <v>72.432508097457045</v>
+      </c>
+      <c r="E15">
+        <v>7.7122242069157062E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.30401190183865617</v>
+      </c>
+      <c r="G15">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.2939532218334626</v>
-      </c>
-      <c r="D16" t="n">
-        <v>96.69135321862107</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.932797705229942e-06</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.3040119018386562</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="C16">
+        <v>0.29395322183346262</v>
+      </c>
+      <c r="D16">
+        <v>96.691353218621074</v>
+      </c>
+      <c r="E16">
+        <v>2.9327977052299421E-6</v>
+      </c>
+      <c r="F16">
+        <v>0.30401190183865617</v>
+      </c>
+      <c r="G16">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.05969866208859722</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>5.9698662088597219E-2</v>
+      </c>
+      <c r="D17">
         <v>67.48071577455373</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.001174189868634002</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.08846773689841173</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="E17">
+        <v>1.1741898686340019E-3</v>
+      </c>
+      <c r="F17">
+        <v>8.8467736898411725E-2</v>
+      </c>
+      <c r="G17">
         <v>0.1583347820766694</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.06355667088504555</v>
-      </c>
-      <c r="D18" t="n">
-        <v>71.84163754299291</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.001487594244277834</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.08846773689841173</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="C18">
+        <v>6.3556670885045546E-2</v>
+      </c>
+      <c r="D18">
+        <v>71.841637542992913</v>
+      </c>
+      <c r="E18">
+        <v>1.4875942442778339E-3</v>
+      </c>
+      <c r="F18">
+        <v>8.8467736898411725E-2</v>
+      </c>
+      <c r="G18">
         <v>0.1583347820766694</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.06571791283620672</v>
-      </c>
-      <c r="D19" t="n">
-        <v>74.28460944092102</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.001714409739532324</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.08846773689841173</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="C19">
+        <v>6.5717912836206718E-2</v>
+      </c>
+      <c r="D19">
+        <v>74.284609440921017</v>
+      </c>
+      <c r="E19">
+        <v>1.7144097395323239E-3</v>
+      </c>
+      <c r="F19">
+        <v>8.8467736898411725E-2</v>
+      </c>
+      <c r="G19">
         <v>0.1583347820766694</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.0756180888002722</v>
-      </c>
-      <c r="D20" t="n">
-        <v>85.47532857894298</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.002075378003930032</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.08846773689841173</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="C20">
+        <v>7.5618088800272196E-2</v>
+      </c>
+      <c r="D20">
+        <v>85.475328578942978</v>
+      </c>
+      <c r="E20">
+        <v>2.0753780039300322E-3</v>
+      </c>
+      <c r="F20">
+        <v>8.8467736898411725E-2</v>
+      </c>
+      <c r="G20">
         <v>0.1583347820766694</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.1252466278753315</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>141.573224619901</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.0001856670079135245</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.08846773689841173</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="E21">
+        <v>1.856670079135245E-4</v>
+      </c>
+      <c r="F21">
+        <v>8.8467736898411725E-2</v>
+      </c>
+      <c r="G21">
         <v>0.1583347820766694</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.0246686580501126</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>2.4668658050112601E-2</v>
+      </c>
+      <c r="D22">
         <v>22.32388143502893</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.0001836262464071524</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E22">
+        <v>1.8362624640715241E-4</v>
+      </c>
+      <c r="F22">
         <v>0.1105034450299688</v>
       </c>
-      <c r="G22" t="n">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.02138218659264227</v>
-      </c>
-      <c r="D23" t="n">
-        <v>19.34979184299944</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.001716463560010493</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="C23">
+        <v>2.138218659264227E-2</v>
+      </c>
+      <c r="D23">
+        <v>19.349791842999441</v>
+      </c>
+      <c r="E23">
+        <v>1.7164635600104929E-3</v>
+      </c>
+      <c r="F23">
         <v>0.1105034450299688</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.02137447379903951</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>2.137447379903951E-2</v>
+      </c>
+      <c r="D24">
         <v>19.34281215689041</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.003135683035239259</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E24">
+        <v>3.1356830352392592E-3</v>
+      </c>
+      <c r="F24">
         <v>0.1105034450299688</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.02416157609521207</v>
-      </c>
-      <c r="D25" t="n">
-        <v>21.86499804477534</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.003610429298681371</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="C25">
+        <v>2.4161576095212071E-2</v>
+      </c>
+      <c r="D25">
+        <v>21.864998044775341</v>
+      </c>
+      <c r="E25">
+        <v>3.6104292986813709E-3</v>
+      </c>
+      <c r="F25">
         <v>0.1105034450299688</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.0843072859368465</v>
-      </c>
-      <c r="D26" t="n">
-        <v>76.29380777584099</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.0003259974244864218</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="C26">
+        <v>8.4307285936846499E-2</v>
+      </c>
+      <c r="D26">
+        <v>76.293807775840989</v>
+      </c>
+      <c r="E26">
+        <v>3.2599742448642178E-4</v>
+      </c>
+      <c r="F26">
         <v>0.1105034450299688</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.02366849510873221</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>2.3668495108732208E-2</v>
+      </c>
+      <c r="D27">
         <v>16.91507124204114</v>
       </c>
-      <c r="E27" t="n">
-        <v>8.869147848353586e-05</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E27">
+        <v>8.8691478483535855E-5</v>
+      </c>
+      <c r="F27">
         <v>0.1399254828434062</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>0.2047041660059262</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.0174854194153123</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>1.74854194153123E-2</v>
+      </c>
+      <c r="D28">
         <v>12.49623661108294</v>
       </c>
-      <c r="E28" t="n">
-        <v>0.000221873569267352</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E28">
+        <v>2.2187356926735199E-4</v>
+      </c>
+      <c r="F28">
         <v>0.1399254828434062</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>0.2047041660059262</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.01663095298858147</v>
-      </c>
-      <c r="D29" t="n">
-        <v>11.88557841690177</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.0005860296167069636</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="C29">
+        <v>1.6630952988581471E-2</v>
+      </c>
+      <c r="D29">
+        <v>11.885578416901771</v>
+      </c>
+      <c r="E29">
+        <v>5.8602961670696356E-4</v>
+      </c>
+      <c r="F29">
         <v>0.1399254828434062</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>0.2047041660059262</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.01872519854112476</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>1.8725198541124762E-2</v>
+      </c>
+      <c r="D30">
         <v>13.38226473163617</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.0007625393544295661</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E30">
+        <v>7.6253935442956611E-4</v>
+      </c>
+      <c r="F30">
         <v>0.1399254828434062</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>0.2047041660059262</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.07624368880908552</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>7.6243688809085525E-2</v>
+      </c>
+      <c r="D31">
         <v>54.4887802134023</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.0003679384155275282</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E31">
+        <v>3.6793841552752818E-4</v>
+      </c>
+      <c r="F31">
         <v>0.1399254828434062</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>0.2047041660059262</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>18</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.0141332800113576</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>1.41332800113576E-2</v>
+      </c>
+      <c r="D32">
         <v>13.42902762537333</v>
       </c>
-      <c r="E32" t="n">
-        <v>0.002077715144399254</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E32">
+        <v>2.0777151443992542E-3</v>
+      </c>
+      <c r="F32">
         <v>0.1052442545032347</v>
       </c>
-      <c r="G32" t="n">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.008385526399273379</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>8.385526399273379E-3</v>
+      </c>
+      <c r="D33">
         <v>7.967680933134119</v>
       </c>
-      <c r="E33" t="n">
-        <v>0.01375951178821946</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E33">
+        <v>1.375951178821946E-2</v>
+      </c>
+      <c r="F33">
         <v>0.1052442545032347</v>
       </c>
-      <c r="G33" t="n">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="G33">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.007869203536920388</v>
-      </c>
-      <c r="D34" t="n">
-        <v>7.477086111791999</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.02369542305138354</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="C34">
+        <v>7.8692035369203883E-3</v>
+      </c>
+      <c r="D34">
+        <v>7.4770861117919987</v>
+      </c>
+      <c r="E34">
+        <v>2.369542305138354E-2</v>
+      </c>
+      <c r="F34">
         <v>0.1052442545032347</v>
       </c>
-      <c r="G34" t="n">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.008862000185365588</v>
-      </c>
-      <c r="D35" t="n">
-        <v>8.420412332431136</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.02617911536262848</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="C35">
+        <v>8.8620001853655875E-3</v>
+      </c>
+      <c r="D35">
+        <v>8.4204123324311357</v>
+      </c>
+      <c r="E35">
+        <v>2.6179115362628479E-2</v>
+      </c>
+      <c r="F35">
         <v>0.1052442545032347</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.05343216564184565</v>
-      </c>
-      <c r="D36" t="n">
-        <v>50.76967469060594</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.004170276459825698</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="C36">
+        <v>5.343216564184565E-2</v>
+      </c>
+      <c r="D36">
+        <v>50.769674690605939</v>
+      </c>
+      <c r="E36">
+        <v>4.170276459825698E-3</v>
+      </c>
+      <c r="F36">
         <v>0.1052442545032347</v>
       </c>
-      <c r="G36" t="n">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.2176442823895501</v>
-      </c>
-      <c r="D37" t="n">
-        <v>56.62372048749656</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1.726299266517859e-06</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.3843694489089771</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="C37">
+        <v>0.21764428238955011</v>
+      </c>
+      <c r="D37">
+        <v>56.623720487496563</v>
+      </c>
+      <c r="E37">
+        <v>1.726299266517859E-6</v>
+      </c>
+      <c r="F37">
+        <v>0.38436944890897712</v>
+      </c>
+      <c r="G37">
+        <v>0.43125623807167401</v>
+      </c>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.211693929654805</v>
-      </c>
-      <c r="D38" t="n">
-        <v>55.07563888225062</v>
-      </c>
-      <c r="E38" t="n">
-        <v>7.469551174864359e-06</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.3843694489089771</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="C38">
+        <v>0.21169392965480499</v>
+      </c>
+      <c r="D38">
+        <v>55.075638882250622</v>
+      </c>
+      <c r="E38">
+        <v>7.4695511748643587E-6</v>
+      </c>
+      <c r="F38">
+        <v>0.38436944890897712</v>
+      </c>
+      <c r="G38">
+        <v>0.43125623807167401</v>
+      </c>
+      <c r="I38">
+        <f>SUM(D37:D41) /5</f>
+        <v>63.698983730290287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.208810848731522</v>
       </c>
-      <c r="D39" t="n">
-        <v>54.32555821598888</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1.23294496541149e-05</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.3843694489089771</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="D39">
+        <v>54.325558215988877</v>
+      </c>
+      <c r="E39">
+        <v>1.23294496541149E-5</v>
+      </c>
+      <c r="F39">
+        <v>0.38436944890897712</v>
+      </c>
+      <c r="G39">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.2441811937708706</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>0.24418119377087061</v>
+      </c>
+      <c r="D40">
         <v>63.52773209836856</v>
       </c>
-      <c r="E40" t="n">
-        <v>1.5726394595834e-05</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.3843694489089771</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="E40">
+        <v>1.5726394595834E-5</v>
+      </c>
+      <c r="F40">
+        <v>0.38436944890897712</v>
+      </c>
+      <c r="G40">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.3418669090769312</v>
-      </c>
-      <c r="D41" t="n">
-        <v>88.94226896734683</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1.139091202504789e-06</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.3843694489089771</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="C41">
+        <v>0.34186690907693118</v>
+      </c>
+      <c r="D41">
+        <v>88.942268967346834</v>
+      </c>
+      <c r="E41">
+        <v>1.139091202504789E-6</v>
+      </c>
+      <c r="F41">
+        <v>0.38436944890897712</v>
+      </c>
+      <c r="G41">
+        <v>0.43125623807167401</v>
+      </c>
+      <c r="I41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>20</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.04631705521561714</v>
-      </c>
-      <c r="D42" t="n">
-        <v>35.02479007643473</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.0001855491378175897</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.1322407789298359</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="C42">
+        <v>4.6317055215617138E-2</v>
+      </c>
+      <c r="D42">
+        <v>35.024790076434734</v>
+      </c>
+      <c r="E42">
+        <v>1.8554913781758969E-4</v>
+      </c>
+      <c r="F42">
+        <v>0.13224077892983591</v>
+      </c>
+      <c r="G42">
         <v>0.2010336813249024</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="I42">
+        <f>SUM(D42:D46) / 5</f>
+        <v>46.72035483877913</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>20</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.04299595822870195</v>
-      </c>
-      <c r="D43" t="n">
-        <v>32.51338851498652</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.000895938521394508</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.1322407789298359</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="C43">
+        <v>4.2995958228701947E-2</v>
+      </c>
+      <c r="D43">
+        <v>32.513388514986516</v>
+      </c>
+      <c r="E43">
+        <v>8.9593852139450796E-4</v>
+      </c>
+      <c r="F43">
+        <v>0.13224077892983591</v>
+      </c>
+      <c r="G43">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>20</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.0431937002231856</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>4.3193700223185597E-2</v>
+      </c>
+      <c r="D44">
         <v>32.66292029790845</v>
       </c>
-      <c r="E44" t="n">
-        <v>0.001436786799078038</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.1322407789298359</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="E44">
+        <v>1.4367867990780379E-3</v>
+      </c>
+      <c r="F44">
+        <v>0.13224077892983591</v>
+      </c>
+      <c r="G44">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>20</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.04863986280735301</v>
-      </c>
-      <c r="D45" t="n">
-        <v>36.78128879833677</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.001804497295239205</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.1322407789298359</v>
-      </c>
-      <c r="G45" t="n">
+      <c r="C45">
+        <v>4.863986280735301E-2</v>
+      </c>
+      <c r="D45">
+        <v>36.781288798336767</v>
+      </c>
+      <c r="E45">
+        <v>1.804497295239205E-3</v>
+      </c>
+      <c r="F45">
+        <v>0.13224077892983591</v>
+      </c>
+      <c r="G45">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>20</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.1277702293130662</v>
       </c>
-      <c r="D46" t="n">
-        <v>96.61938650622919</v>
-      </c>
-      <c r="E46" t="n">
-        <v>4.658833597287896e-06</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.1322407789298359</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="D46">
+        <v>96.619386506229191</v>
+      </c>
+      <c r="E46">
+        <v>4.6588335972878963E-6</v>
+      </c>
+      <c r="F46">
+        <v>0.13224077892983591</v>
+      </c>
+      <c r="G46">
         <v>0.2010336813249024</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="I46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>21</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.02041304806501554</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>2.0413048065015541E-2</v>
+      </c>
+      <c r="D47">
         <v>14.56968793564425</v>
       </c>
-      <c r="E47" t="n">
-        <v>0.0002689519348569772</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E47">
+        <v>2.6895193485697722E-4</v>
+      </c>
+      <c r="F47">
         <v>0.1401062819957572</v>
       </c>
-      <c r="G47" t="n">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="G47">
+        <v>0.20457811216298591</v>
+      </c>
+      <c r="I47">
+        <f>SUM(D47:D51) /5</f>
+        <v>18.702452721871303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.01367108574516009</v>
-      </c>
-      <c r="D48" t="n">
-        <v>9.757653654369395</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.001338641569705364</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="C48">
+        <v>1.3671085745160089E-2</v>
+      </c>
+      <c r="D48">
+        <v>9.7576536543693955</v>
+      </c>
+      <c r="E48">
+        <v>1.3386415697053641E-3</v>
+      </c>
+      <c r="F48">
         <v>0.1401062819957572</v>
       </c>
-      <c r="G48" t="n">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="G48">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.01264701447719552</v>
-      </c>
-      <c r="D49" t="n">
-        <v>9.026729063853473</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.002856384355932522</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="C49">
+        <v>1.2647014477195521E-2</v>
+      </c>
+      <c r="D49">
+        <v>9.0267290638534732</v>
+      </c>
+      <c r="E49">
+        <v>2.8563843559325222E-3</v>
+      </c>
+      <c r="F49">
         <v>0.1401062819957572</v>
       </c>
-      <c r="G49" t="n">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="G49">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>21</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
-      <c r="C50" t="n">
-        <v>0.01406852666489927</v>
-      </c>
-      <c r="D50" t="n">
-        <v>10.04132467473893</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.003633228955606084</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="C50">
+        <v>1.4068526664899271E-2</v>
+      </c>
+      <c r="D50">
+        <v>10.041324674738931</v>
+      </c>
+      <c r="E50">
+        <v>3.6332289556060839E-3</v>
+      </c>
+      <c r="F50">
         <v>0.1401062819957572</v>
       </c>
-      <c r="G50" t="n">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="G50">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>21</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
       </c>
-      <c r="C51" t="n">
-        <v>0.07021688080087045</v>
-      </c>
-      <c r="D51" t="n">
-        <v>50.11686828075048</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.0006681109604242049</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="C51">
+        <v>7.0216880800870449E-2</v>
+      </c>
+      <c r="D51">
+        <v>50.116868280750481</v>
+      </c>
+      <c r="E51">
+        <v>6.6811096042420487E-4</v>
+      </c>
+      <c r="F51">
         <v>0.1401062819957572</v>
       </c>
-      <c r="G51" t="n">
-        <v>0.2045781121629859</v>
+      <c r="G51">
+        <v>0.20457811216298591</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>